--- a/SeleniumUIApplication/excel/AN_Lighting.xlsx
+++ b/SeleniumUIApplication/excel/AN_Lighting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasudha Katragunta\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D417D3-23FE-4B86-BE42-664389297224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20D515D-F69C-4B69-8BAB-80E96CC849F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="332">
   <si>
     <t>TestCase</t>
   </si>
@@ -905,6 +905,12 @@
     <t>Gross Margin % text is available</t>
   </si>
   <si>
+    <t>MOUSEHOVER</t>
+  </si>
+  <si>
+    <t>AccountInf_GrossMargin$_Annuity</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -1025,14 +1031,14 @@
     <t>Selecting  a value from the dropdown</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Step-47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="78" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,427 +1096,8 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="77">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1547,286 +1134,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1841,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1853,216 +1160,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2384,17 +1481,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2432,9 +1529,6 @@
       <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2443,9 +1537,6 @@
       <c r="B4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2455,13 +1546,7 @@
         <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2470,9 +1555,6 @@
       </c>
       <c r="B6" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2497,29 +1579,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2946,35 +2028,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E6648A-4201-4A34-ABA2-C6B27F810295}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3185,7 +2267,7 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -3194,7 +2276,7 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3216,7 +2298,7 @@
         <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
         <v>103</v>
@@ -3225,7 +2307,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3236,7 +2318,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -3245,7 +2327,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3267,7 +2349,7 @@
         <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D19" t="s">
         <v>105</v>
@@ -3276,7 +2358,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3287,7 +2369,7 @@
         <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -3296,7 +2378,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3318,7 +2400,7 @@
         <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
@@ -3327,7 +2409,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3338,7 +2420,7 @@
         <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D23" t="s">
         <v>107</v>
@@ -3347,7 +2429,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3369,7 +2451,7 @@
         <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D25" t="s">
         <v>117</v>
@@ -3378,7 +2460,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3389,7 +2471,7 @@
         <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D26" t="s">
         <v>118</v>
@@ -3398,7 +2480,7 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3409,7 +2491,7 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -3418,7 +2500,7 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3429,7 +2511,7 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D28" t="s">
         <v>120</v>
@@ -3438,7 +2520,7 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3449,7 +2531,7 @@
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D29" t="s">
         <v>110</v>
@@ -3458,7 +2540,7 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3477,10 +2559,10 @@
         <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C31" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3505,7 +2587,7 @@
         <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D33" t="s">
         <v>111</v>
@@ -3514,7 +2596,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3536,7 +2618,7 @@
         <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D35" t="s">
         <v>105</v>
@@ -3545,7 +2627,7 @@
         <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3556,7 +2638,7 @@
         <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -3565,7 +2647,7 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3587,16 +2669,16 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D38" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3614,37 +2696,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE86BEC0-8829-407F-A371-C504A3EB402A}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3730,12 +2812,6 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3759,12 +2835,6 @@
       <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3785,12 +2855,6 @@
       <c r="G8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3822,12 +2886,6 @@
       <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3859,12 +2917,6 @@
       <c r="G12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3885,7 +2937,7 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -3894,13 +2946,7 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3931,10 +2977,10 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -3942,7 +2988,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -3951,16 +2997,10 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>321</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -3971,7 +3011,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -3991,7 +3031,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -4010,14 +3050,8 @@
       <c r="G20" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -4028,7 +3062,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -4050,14 +3084,8 @@
       <c r="G22" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -4079,14 +3107,8 @@
       <c r="G23" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -4108,14 +3130,8 @@
       <c r="G24" t="s">
         <v>148</v>
       </c>
-      <c r="H24" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -4137,14 +3153,8 @@
       <c r="G25" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -4166,14 +3176,8 @@
       <c r="G26" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -4181,7 +3185,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D27" t="s">
         <v>157</v>
@@ -4190,16 +3194,10 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>323</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -4207,7 +3205,7 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D28" t="s">
         <v>158</v>
@@ -4219,16 +3217,10 @@
         <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>325</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -4250,14 +3242,8 @@
       <c r="G29" t="s">
         <v>163</v>
       </c>
-      <c r="H29" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -4265,7 +3251,7 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D30" t="s">
         <v>164</v>
@@ -4274,16 +3260,10 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>327</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -4291,7 +3271,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D31" t="s">
         <v>165</v>
@@ -4303,16 +3283,10 @@
         <v>166</v>
       </c>
       <c r="G31" t="s">
-        <v>325</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -4334,14 +3308,8 @@
       <c r="G32" t="s">
         <v>170</v>
       </c>
-      <c r="H32" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="I32" s="43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -4363,14 +3331,8 @@
       <c r="G33" t="s">
         <v>174</v>
       </c>
-      <c r="H33" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="I33" s="45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -4392,14 +3354,8 @@
       <c r="G34" t="s">
         <v>178</v>
       </c>
-      <c r="H34" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="I34" s="47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -4421,14 +3377,8 @@
       <c r="G35" t="s">
         <v>182</v>
       </c>
-      <c r="H35" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="I35" s="49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -4450,14 +3400,8 @@
       <c r="G36" t="s">
         <v>186</v>
       </c>
-      <c r="H36" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" s="51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>228</v>
       </c>
@@ -4479,14 +3423,8 @@
       <c r="G37" t="s">
         <v>190</v>
       </c>
-      <c r="H37" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37" s="53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>231</v>
       </c>
@@ -4508,14 +3446,8 @@
       <c r="G38" t="s">
         <v>194</v>
       </c>
-      <c r="H38" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="I38" s="55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>235</v>
       </c>
@@ -4537,14 +3469,8 @@
       <c r="G39" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="H39" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39" s="57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -4566,14 +3492,8 @@
       <c r="G40" t="s">
         <v>274</v>
       </c>
-      <c r="H40" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="I40" s="59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>240</v>
       </c>
@@ -4595,14 +3515,8 @@
       <c r="G41" t="s">
         <v>278</v>
       </c>
-      <c r="H41" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="I41" s="61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>241</v>
       </c>
@@ -4624,14 +3538,8 @@
       <c r="G42" t="s">
         <v>279</v>
       </c>
-      <c r="H42" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42" s="63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>243</v>
       </c>
@@ -4653,14 +3561,8 @@
       <c r="G43" t="s">
         <v>281</v>
       </c>
-      <c r="H43" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="I43" s="65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>244</v>
       </c>
@@ -4682,14 +3584,8 @@
       <c r="G44" t="s">
         <v>282</v>
       </c>
-      <c r="H44" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44" s="67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>246</v>
       </c>
@@ -4711,14 +3607,8 @@
       <c r="G45" t="s">
         <v>284</v>
       </c>
-      <c r="H45" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="I45" s="69" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>247</v>
       </c>
@@ -4740,14 +3630,8 @@
       <c r="G46" t="s">
         <v>286</v>
       </c>
-      <c r="H46" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="I46" s="71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>248</v>
       </c>
@@ -4769,15 +3653,48 @@
       <c r="G47" t="s">
         <v>288</v>
       </c>
-      <c r="H47" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47" s="73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>250</v>
+      </c>
       <c r="B48" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" t="s">
+        <v>290</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>290</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4799,35 +3716,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0456A8EF-4592-490A-A3A2-55065F1D8139}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/SeleniumUIApplication/excel/AN_Lighting.xlsx
+++ b/SeleniumUIApplication/excel/AN_Lighting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasudha Katragunta\git\SeleniumUIApplication\SeleniumUIApplication\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20D515D-F69C-4B69-8BAB-80E96CC849F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A4D045-91AD-4770-96D4-F38AF00B46E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="332">
   <si>
     <t>TestCase</t>
   </si>
@@ -1481,7 +1481,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,6 +1529,9 @@
       <c r="B3" t="s">
         <v>44</v>
       </c>
+      <c r="C3" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1537,6 +1540,9 @@
       <c r="B4" t="s">
         <v>116</v>
       </c>
+      <c r="C4" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1555,6 +1561,9 @@
       </c>
       <c r="B6" t="s">
         <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumUIApplication/excel/AN_Lighting.xlsx
+++ b/SeleniumUIApplication/excel/AN_Lighting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasudha Katragunta\git\SeleniumUIApplication\SeleniumUIApplication\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A4D045-91AD-4770-96D4-F38AF00B46E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A7CB5B-870E-4EAB-B9F1-1815F6C64398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="332">
   <si>
     <t>TestCase</t>
   </si>
@@ -1540,9 +1540,6 @@
       <c r="B4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1551,9 +1548,6 @@
       <c r="B5" t="s">
         <v>125</v>
       </c>
-      <c r="C5" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1561,9 +1555,6 @@
       </c>
       <c r="B6" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumUIApplication/excel/AN_Lighting.xlsx
+++ b/SeleniumUIApplication/excel/AN_Lighting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasudha Katragunta\.jenkins\workspace\SeleniumUIApplication\SeleniumUIApplication\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0645E06E-7177-476C-98BC-1743ACB32545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991AFDD4-2E43-416D-89E1-ECC0A2FF9125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
   </bookViews>
   <sheets>
     <sheet name="SCENARIOS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="346">
   <si>
     <t>TestCase</t>
   </si>
@@ -1065,6 +1065,15 @@
   </si>
   <si>
     <t xml:space="preserve"> page Navigates to Riskscore page</t>
+  </si>
+  <si>
+    <t>Taking Screenshot</t>
+  </si>
+  <si>
+    <t>VERIFYING GEETINGTEXT VALUES</t>
+  </si>
+  <si>
+    <t>Strategic_RiskScore,RiskScore_Value</t>
   </si>
 </sst>
 </file>
@@ -1506,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C9A200-B09E-4F1E-B00D-15545FE5CCE6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,9 +1564,6 @@
       <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1566,9 +1572,6 @@
       <c r="B4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1587,9 +1590,6 @@
       </c>
       <c r="B6" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1606,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EB04D9-E600-468E-8D3D-1B28C543D3ED}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,9 +1690,6 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -1702,7 +1699,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -1725,7 +1722,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -1748,7 +1745,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -1767,9 +1764,6 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1779,7 +1773,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -1798,9 +1792,6 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1810,7 +1801,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
@@ -1829,9 +1820,6 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1841,7 +1829,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
@@ -1860,9 +1848,6 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -1872,11 +1857,14 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>95</v>
       </c>
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
       <c r="D16" t="s">
         <v>96</v>
       </c>
@@ -1892,13 +1880,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
@@ -1906,99 +1894,99 @@
       <c r="E17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" t="s">
-        <v>70</v>
+      <c r="G20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
@@ -2006,43 +1994,74 @@
       <c r="E22" t="s">
         <v>30</v>
       </c>
-      <c r="F22" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="G23" t="s">
-        <v>80</v>
+      <c r="F23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2061,20 +2080,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E6648A-4201-4A34-ABA2-C6B27F810295}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -2145,9 +2164,6 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -2157,7 +2173,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -2180,7 +2196,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -2203,7 +2219,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -2222,9 +2238,6 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -2234,10 +2247,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -2253,9 +2266,6 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -2265,10 +2275,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -2284,9 +2294,6 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -2296,7 +2303,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
@@ -2315,9 +2322,6 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -2327,7 +2331,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>95</v>
@@ -2347,7 +2351,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
@@ -2366,9 +2370,6 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -2378,7 +2379,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>95</v>
@@ -2398,7 +2399,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
         <v>95</v>
@@ -2417,9 +2418,6 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -2429,7 +2427,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
@@ -2449,7 +2447,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
@@ -2468,9 +2466,6 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -2480,7 +2475,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>95</v>
@@ -2500,7 +2495,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>95</v>
@@ -2520,7 +2515,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
         <v>99</v>
@@ -2540,7 +2535,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
         <v>99</v>
@@ -2560,7 +2555,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
         <v>109</v>
@@ -2579,9 +2574,6 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>115</v>
-      </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -2591,7 +2583,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>251</v>
@@ -2602,7 +2594,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
@@ -2616,7 +2608,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>99</v>
@@ -2635,9 +2627,6 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>122</v>
-      </c>
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -2647,7 +2636,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
@@ -2667,7 +2656,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
         <v>95</v>
@@ -2686,9 +2675,6 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>218</v>
-      </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -2698,7 +2684,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
         <v>109</v>
@@ -2714,6 +2700,14 @@
       </c>
       <c r="G38" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>344</v>
+      </c>
+      <c r="F39" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumUIApplication/excel/AN_Lighting.xlsx
+++ b/SeleniumUIApplication/excel/AN_Lighting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasudha Katragunta\git\SeleniumUIApplication\SeleniumUIApplication\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991AFDD4-2E43-416D-89E1-ECC0A2FF9125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8120D1EA-31D3-43C3-AE51-2E45071F07CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
   </bookViews>
   <sheets>
     <sheet name="SCENARIOS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="346">
   <si>
     <t>TestCase</t>
   </si>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C9A200-B09E-4F1E-B00D-15545FE5CCE6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,6 +1564,9 @@
       <c r="B3" t="s">
         <v>44</v>
       </c>
+      <c r="C3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1572,6 +1575,9 @@
       <c r="B4" t="s">
         <v>116</v>
       </c>
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1590,6 +1596,9 @@
       </c>
       <c r="B6" t="s">
         <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E6648A-4201-4A34-ABA2-C6B27F810295}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>

--- a/SeleniumUIApplication/excel/AN_Lighting.xlsx
+++ b/SeleniumUIApplication/excel/AN_Lighting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasudha Katragunta\git\SeleniumUIApplication\SeleniumUIApplication\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8120D1EA-31D3-43C3-AE51-2E45071F07CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4680C67D-E994-4C88-9AA9-3E42828A9BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="346">
   <si>
     <t>TestCase</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>SCREEN ENABLE</t>
-  </si>
-  <si>
-    <t>GETTING TEXT</t>
   </si>
   <si>
     <t>Strategic_RiskScore</t>
@@ -1074,6 +1071,9 @@
   </si>
   <si>
     <t>Strategic_RiskScore,RiskScore_Value</t>
+  </si>
+  <si>
+    <t>GETTING VALUE</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1516,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1565,7 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,32 +1573,32 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
         <v>124</v>
       </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1872,7 @@
         <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
@@ -1895,7 +1895,7 @@
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
@@ -2032,7 +2032,7 @@
         <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D24" t="s">
         <v>79</v>
@@ -2089,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E6648A-4201-4A34-ABA2-C6B27F810295}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2271,7 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2299,7 +2299,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2318,7 +2318,7 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -2327,7 +2327,7 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2346,7 +2346,7 @@
         <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
         <v>103</v>
@@ -2355,7 +2355,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -2375,7 +2375,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" t="s">
         <v>105</v>
@@ -2403,7 +2403,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,7 @@
         <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -2423,7 +2423,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
@@ -2451,7 +2451,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2462,7 +2462,7 @@
         <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D23" t="s">
         <v>107</v>
@@ -2471,7 +2471,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,16 +2490,16 @@
         <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2510,16 +2510,16 @@
         <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,193 +2530,201 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
         <v>256</v>
       </c>
-      <c r="D27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
       <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>257</v>
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>94</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" t="s">
         <v>109</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
         <v>258</v>
       </c>
-      <c r="D29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
+        <v>250</v>
+      </c>
+      <c r="C32" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="D33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>263</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>95</v>
       </c>
       <c r="C36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>345</v>
+      </c>
+      <c r="C39" t="s">
         <v>264</v>
       </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D38" t="s">
-        <v>252</v>
-      </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>343</v>
+      </c>
+      <c r="F40" t="s">
         <v>344</v>
-      </c>
-      <c r="F39" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2763,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2975,7 +2983,7 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -2984,7 +2992,7 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3006,7 +3014,7 @@
         <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
         <v>103</v>
@@ -3015,7 +3023,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3026,7 +3034,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -3035,7 +3043,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3057,7 +3065,7 @@
         <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
         <v>105</v>
@@ -3066,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3077,16 +3085,16 @@
         <v>99</v>
       </c>
       <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
         <v>133</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
         <v>134</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3105,22 +3113,22 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
         <v>136</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>137</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
         <v>138</v>
       </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>139</v>
-      </c>
       <c r="G22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3128,22 +3136,22 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
         <v>140</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
         <v>141</v>
       </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>142</v>
-      </c>
       <c r="G23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3151,22 +3159,22 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3174,45 +3182,45 @@
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" t="s">
         <v>143</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
         <v>144</v>
       </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>145</v>
-      </c>
       <c r="G25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
         <v>329</v>
       </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>330</v>
-      </c>
       <c r="G26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3220,22 +3228,22 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
         <v>146</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
         <v>147</v>
       </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>148</v>
-      </c>
       <c r="G27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3243,22 +3251,22 @@
         <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
         <v>333</v>
       </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>334</v>
-      </c>
       <c r="G28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3266,22 +3274,22 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
         <v>149</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
         <v>150</v>
       </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>151</v>
-      </c>
       <c r="G29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3292,266 +3300,266 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
         <v>271</v>
-      </c>
-      <c r="D30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
         <v>153</v>
       </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>154</v>
-      </c>
       <c r="G31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" t="s">
         <v>155</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
         <v>156</v>
       </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>157</v>
-      </c>
       <c r="G32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
         <v>274</v>
-      </c>
-      <c r="D33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
         <v>159</v>
       </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" t="s">
-        <v>160</v>
-      </c>
       <c r="G34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
         <v>161</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
         <v>162</v>
       </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>163</v>
-      </c>
       <c r="G35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" t="s">
         <v>164</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
         <v>165</v>
       </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" t="s">
-        <v>166</v>
-      </c>
       <c r="G36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" t="s">
         <v>167</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
         <v>168</v>
       </c>
-      <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" t="s">
-        <v>169</v>
-      </c>
       <c r="G37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" t="s">
         <v>170</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
         <v>171</v>
       </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" t="s">
-        <v>172</v>
-      </c>
       <c r="G38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" t="s">
         <v>173</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
         <v>174</v>
       </c>
-      <c r="E39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" t="s">
-        <v>175</v>
-      </c>
       <c r="G39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
         <v>176</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
         <v>177</v>
       </c>
-      <c r="E40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" t="s">
-        <v>178</v>
-      </c>
       <c r="G40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" t="s">
         <v>179</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
         <v>180</v>
       </c>
-      <c r="E41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" t="s">
-        <v>181</v>
-      </c>
       <c r="G41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3596,7 +3604,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3692,10 +3700,10 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" t="s">
         <v>129</v>
-      </c>
-      <c r="I6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3721,10 +3729,10 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" t="s">
         <v>129</v>
-      </c>
-      <c r="I7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3747,10 +3755,10 @@
         <v>42</v>
       </c>
       <c r="H8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" t="s">
         <v>129</v>
-      </c>
-      <c r="I8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3784,10 +3792,10 @@
         <v>49</v>
       </c>
       <c r="H10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" t="s">
         <v>129</v>
-      </c>
-      <c r="I10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3821,10 +3829,10 @@
         <v>50</v>
       </c>
       <c r="H12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" t="s">
         <v>129</v>
-      </c>
-      <c r="I12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3846,7 +3854,7 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -3855,13 +3863,13 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" t="s">
         <v>129</v>
-      </c>
-      <c r="I14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3883,7 +3891,7 @@
         <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
         <v>103</v>
@@ -3892,7 +3900,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
         <v>97</v>
@@ -3909,7 +3917,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -3918,13 +3926,13 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" t="s">
         <v>129</v>
-      </c>
-      <c r="I17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3946,7 +3954,7 @@
         <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
         <v>105</v>
@@ -3955,7 +3963,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19" t="s">
         <v>97</v>
@@ -3972,22 +3980,22 @@
         <v>99</v>
       </c>
       <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" t="s">
         <v>182</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
         <v>183</v>
       </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>184</v>
-      </c>
       <c r="H20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" t="s">
         <v>129</v>
-      </c>
-      <c r="I20" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4006,16 +4014,16 @@
         <v>95</v>
       </c>
       <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
         <v>131</v>
-      </c>
-      <c r="D22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>132</v>
       </c>
       <c r="H22" t="s">
         <v>97</v>
@@ -4029,28 +4037,28 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" t="s">
         <v>186</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
         <v>187</v>
       </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>188</v>
       </c>
-      <c r="G23" t="s">
-        <v>189</v>
-      </c>
       <c r="H23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" t="s">
         <v>129</v>
-      </c>
-      <c r="I23" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4058,28 +4066,28 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" t="s">
         <v>190</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
         <v>191</v>
       </c>
-      <c r="E24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>192</v>
       </c>
-      <c r="G24" t="s">
-        <v>193</v>
-      </c>
       <c r="H24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" t="s">
         <v>129</v>
-      </c>
-      <c r="I24" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4087,57 +4095,57 @@
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" t="s">
         <v>194</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
         <v>195</v>
       </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>196</v>
       </c>
-      <c r="G25" t="s">
-        <v>197</v>
-      </c>
       <c r="H25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" t="s">
         <v>129</v>
-      </c>
-      <c r="I25" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
         <v>198</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
         <v>199</v>
       </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>200</v>
       </c>
-      <c r="G26" t="s">
-        <v>201</v>
-      </c>
       <c r="H26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" t="s">
         <v>129</v>
-      </c>
-      <c r="I26" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4145,28 +4153,28 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
         <v>279</v>
       </c>
-      <c r="D27" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>203</v>
-      </c>
-      <c r="G27" t="s">
-        <v>280</v>
-      </c>
       <c r="H27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" t="s">
         <v>129</v>
-      </c>
-      <c r="I27" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4174,28 +4182,28 @@
         <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
         <v>281</v>
       </c>
-      <c r="D28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" t="s">
-        <v>282</v>
-      </c>
       <c r="H28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" t="s">
         <v>129</v>
-      </c>
-      <c r="I28" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4203,28 +4211,28 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
         <v>283</v>
       </c>
-      <c r="D29" t="s">
-        <v>206</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" t="s">
-        <v>284</v>
-      </c>
       <c r="H29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" t="s">
         <v>129</v>
-      </c>
-      <c r="I29" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4235,27 +4243,27 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
         <v>285</v>
       </c>
-      <c r="D30" t="s">
-        <v>208</v>
-      </c>
-      <c r="E30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
-        <v>286</v>
-      </c>
       <c r="H30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" t="s">
         <v>129</v>
-      </c>
-      <c r="I30" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -4266,256 +4274,256 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
       </c>
       <c r="C32" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="D32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>288</v>
-      </c>
       <c r="H32" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" t="s">
         <v>129</v>
-      </c>
-      <c r="I32" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
       <c r="C33" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" t="s">
         <v>289</v>
       </c>
-      <c r="D33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" t="s">
-        <v>192</v>
-      </c>
-      <c r="G33" t="s">
-        <v>290</v>
-      </c>
       <c r="H33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" t="s">
         <v>129</v>
-      </c>
-      <c r="I33" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" t="s">
         <v>291</v>
       </c>
-      <c r="D34" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" t="s">
-        <v>211</v>
-      </c>
-      <c r="G34" t="s">
-        <v>292</v>
-      </c>
       <c r="H34" t="s">
+        <v>128</v>
+      </c>
+      <c r="I34" t="s">
         <v>129</v>
-      </c>
-      <c r="I34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
       </c>
       <c r="C35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" t="s">
         <v>293</v>
       </c>
-      <c r="D35" t="s">
-        <v>212</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>213</v>
-      </c>
-      <c r="G35" t="s">
-        <v>294</v>
-      </c>
       <c r="H35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" t="s">
         <v>129</v>
-      </c>
-      <c r="I35" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
+        <v>294</v>
+      </c>
+      <c r="D36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
         <v>295</v>
       </c>
-      <c r="D36" t="s">
-        <v>214</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>296</v>
-      </c>
       <c r="H36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" t="s">
         <v>129</v>
-      </c>
-      <c r="I36" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
       </c>
       <c r="C37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" t="s">
         <v>293</v>
       </c>
-      <c r="D37" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" t="s">
-        <v>217</v>
-      </c>
-      <c r="G37" t="s">
-        <v>294</v>
-      </c>
       <c r="H37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" t="s">
         <v>129</v>
-      </c>
-      <c r="I37" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
         <v>297</v>
       </c>
-      <c r="D38" t="s">
+      <c r="H38" t="s">
         <v>219</v>
       </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>298</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>220</v>
-      </c>
-      <c r="I38" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
       </c>
       <c r="C39" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" t="s">
         <v>293</v>
       </c>
-      <c r="D39" t="s">
-        <v>223</v>
-      </c>
-      <c r="E39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" t="s">
-        <v>224</v>
-      </c>
-      <c r="G39" t="s">
-        <v>294</v>
-      </c>
       <c r="H39" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" t="s">
         <v>129</v>
-      </c>
-      <c r="I39" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
         <v>299</v>
       </c>
-      <c r="D40" t="s">
-        <v>226</v>
-      </c>
-      <c r="E40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>300</v>
-      </c>
       <c r="H40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" t="s">
         <v>129</v>
-      </c>
-      <c r="I40" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -4526,114 +4534,114 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="D42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>302</v>
-      </c>
       <c r="H42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" t="s">
         <v>129</v>
-      </c>
-      <c r="I42" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
       </c>
       <c r="C43" t="s">
+        <v>302</v>
+      </c>
+      <c r="D43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
         <v>303</v>
       </c>
-      <c r="D43" t="s">
-        <v>209</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>304</v>
-      </c>
       <c r="H43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" t="s">
         <v>129</v>
-      </c>
-      <c r="I43" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
       </c>
       <c r="C44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" t="s">
         <v>305</v>
       </c>
-      <c r="D44" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s">
-        <v>232</v>
-      </c>
-      <c r="G44" t="s">
-        <v>306</v>
-      </c>
       <c r="H44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" t="s">
         <v>129</v>
-      </c>
-      <c r="I44" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
       </c>
       <c r="C45" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
         <v>307</v>
       </c>
-      <c r="D45" t="s">
-        <v>226</v>
-      </c>
-      <c r="E45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" t="s">
-        <v>308</v>
-      </c>
       <c r="H45" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" t="s">
         <v>129</v>
-      </c>
-      <c r="I45" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -4647,59 +4655,59 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
       </c>
       <c r="C47" t="s">
+        <v>308</v>
+      </c>
+      <c r="D47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
         <v>309</v>
       </c>
-      <c r="D47" t="s">
-        <v>236</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s">
-        <v>310</v>
-      </c>
       <c r="H47" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" t="s">
         <v>129</v>
-      </c>
-      <c r="I47" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
         <v>311</v>
       </c>
-      <c r="D48" t="s">
-        <v>238</v>
-      </c>
-      <c r="E48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" t="s">
-        <v>312</v>
-      </c>
       <c r="H48" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" t="s">
         <v>129</v>
-      </c>
-      <c r="I48" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B49" t="s">
         <v>82</v>

--- a/SeleniumUIApplication/excel/AN_Lighting.xlsx
+++ b/SeleniumUIApplication/excel/AN_Lighting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasudha Katragunta\git\SeleniumUIApplication\SeleniumUIApplication\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4680C67D-E994-4C88-9AA9-3E42828A9BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA00D4FE-2543-478D-9F9C-8AC1C08EEC3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
   </bookViews>
   <sheets>
     <sheet name="SCENARIOS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="349">
   <si>
     <t>TestCase</t>
   </si>
@@ -731,9 +731,6 @@
     <t>Step-41</t>
   </si>
   <si>
-    <t>ImperativeEdit</t>
-  </si>
-  <si>
     <t>Step-42</t>
   </si>
   <si>
@@ -1074,6 +1071,18 @@
   </si>
   <si>
     <t>GETTING VALUE</t>
+  </si>
+  <si>
+    <t>Valdating the Risk score</t>
+  </si>
+  <si>
+    <t>Both are valid</t>
+  </si>
+  <si>
+    <t>Sample Imperative Creation using Automation</t>
+  </si>
+  <si>
+    <t>Editing the existing Imperative</t>
   </si>
 </sst>
 </file>
@@ -1515,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C9A200-B09E-4F1E-B00D-15545FE5CCE6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1574,7 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1576,7 +1585,7 @@
         <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1587,7 +1596,7 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,7 +1607,7 @@
         <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1881,7 @@
         <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
@@ -1895,7 +1904,7 @@
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
@@ -2032,7 +2041,7 @@
         <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D24" t="s">
         <v>79</v>
@@ -2091,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E6648A-4201-4A34-ABA2-C6B27F810295}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2280,7 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2299,7 +2308,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2318,7 +2327,7 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -2327,7 +2336,7 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2346,7 +2355,7 @@
         <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>103</v>
@@ -2355,7 +2364,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2366,7 +2375,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -2375,7 +2384,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2394,7 +2403,7 @@
         <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D19" t="s">
         <v>105</v>
@@ -2403,7 +2412,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2414,7 +2423,7 @@
         <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -2423,7 +2432,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2442,7 +2451,7 @@
         <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
@@ -2451,7 +2460,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2462,7 +2471,7 @@
         <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D23" t="s">
         <v>107</v>
@@ -2471,7 +2480,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,7 +2499,7 @@
         <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
         <v>116</v>
@@ -2499,7 +2508,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2510,7 +2519,7 @@
         <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
         <v>117</v>
@@ -2519,7 +2528,7 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,7 +2539,7 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
         <v>118</v>
@@ -2539,7 +2548,7 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2558,7 +2567,7 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
         <v>119</v>
@@ -2567,7 +2576,7 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2575,10 +2584,10 @@
         <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D30" t="s">
         <v>109</v>
@@ -2587,7 +2596,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2603,10 +2612,10 @@
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2631,7 +2640,7 @@
         <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D34" t="s">
         <v>110</v>
@@ -2640,7 +2649,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2659,7 +2668,7 @@
         <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D36" t="s">
         <v>105</v>
@@ -2668,7 +2677,7 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2679,7 +2688,7 @@
         <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D37" t="s">
         <v>106</v>
@@ -2688,7 +2697,7 @@
         <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2704,27 +2713,33 @@
         <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" t="s">
+        <v>345</v>
+      </c>
+      <c r="F40" t="s">
         <v>343</v>
       </c>
-      <c r="F40" t="s">
-        <v>344</v>
+      <c r="G40" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2744,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE86BEC0-8829-407F-A371-C504A3EB402A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,7 +2998,7 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -2992,7 +3007,7 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3023,7 +3038,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3034,7 +3049,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -3043,7 +3058,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3128,7 +3143,7 @@
         <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3151,7 +3166,7 @@
         <v>141</v>
       </c>
       <c r="G23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3162,19 +3177,19 @@
         <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3197,7 +3212,7 @@
         <v>144</v>
       </c>
       <c r="G25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3208,19 +3223,19 @@
         <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D26" t="s">
+        <v>327</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
         <v>328</v>
       </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>329</v>
-      </c>
       <c r="G26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3243,7 +3258,7 @@
         <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3254,19 +3269,19 @@
         <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
         <v>332</v>
       </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>333</v>
-      </c>
       <c r="G28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3289,7 +3304,7 @@
         <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3300,7 +3315,7 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D30" t="s">
         <v>151</v>
@@ -3309,7 +3324,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3320,7 +3335,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D31" t="s">
         <v>152</v>
@@ -3332,7 +3347,7 @@
         <v>153</v>
       </c>
       <c r="G31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3355,7 +3370,7 @@
         <v>156</v>
       </c>
       <c r="G32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3366,7 +3381,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D33" t="s">
         <v>157</v>
@@ -3375,7 +3390,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3386,7 +3401,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
         <v>158</v>
@@ -3398,7 +3413,7 @@
         <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3421,7 +3436,7 @@
         <v>162</v>
       </c>
       <c r="G35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3444,7 +3459,7 @@
         <v>165</v>
       </c>
       <c r="G36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3467,7 +3482,7 @@
         <v>168</v>
       </c>
       <c r="G37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3490,7 +3505,7 @@
         <v>171</v>
       </c>
       <c r="G38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3513,7 +3528,7 @@
         <v>174</v>
       </c>
       <c r="G39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3536,7 +3551,7 @@
         <v>177</v>
       </c>
       <c r="G40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3559,7 +3574,7 @@
         <v>180</v>
       </c>
       <c r="G41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3585,8 +3600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0456A8EF-4592-490A-A3A2-55065F1D8139}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,7 +3611,7 @@
     <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -3854,7 +3869,7 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -3863,7 +3878,7 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H14" t="s">
         <v>128</v>
@@ -3917,7 +3932,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
@@ -3926,7 +3941,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H17" t="s">
         <v>128</v>
@@ -4078,7 +4093,7 @@
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>347</v>
       </c>
       <c r="G24" t="s">
         <v>192</v>
@@ -4156,7 +4171,7 @@
         <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D27" t="s">
         <v>201</v>
@@ -4168,7 +4183,7 @@
         <v>202</v>
       </c>
       <c r="G27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H27" t="s">
         <v>128</v>
@@ -4185,7 +4200,7 @@
         <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s">
         <v>203</v>
@@ -4197,7 +4212,7 @@
         <v>204</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H28" t="s">
         <v>128</v>
@@ -4214,7 +4229,7 @@
         <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D29" t="s">
         <v>205</v>
@@ -4226,7 +4241,7 @@
         <v>206</v>
       </c>
       <c r="G29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H29" t="s">
         <v>128</v>
@@ -4243,7 +4258,7 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D30" t="s">
         <v>207</v>
@@ -4252,7 +4267,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H30" t="s">
         <v>128</v>
@@ -4280,7 +4295,7 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D32" t="s">
         <v>208</v>
@@ -4289,7 +4304,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H32" t="s">
         <v>128</v>
@@ -4306,7 +4321,7 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D33" t="s">
         <v>208</v>
@@ -4318,7 +4333,7 @@
         <v>191</v>
       </c>
       <c r="G33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H33" t="s">
         <v>128</v>
@@ -4335,7 +4350,7 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D34" t="s">
         <v>209</v>
@@ -4347,7 +4362,7 @@
         <v>210</v>
       </c>
       <c r="G34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H34" t="s">
         <v>128</v>
@@ -4364,7 +4379,7 @@
         <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -4376,7 +4391,7 @@
         <v>212</v>
       </c>
       <c r="G35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H35" t="s">
         <v>128</v>
@@ -4393,7 +4408,7 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D36" t="s">
         <v>213</v>
@@ -4402,7 +4417,7 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H36" t="s">
         <v>128</v>
@@ -4419,7 +4434,7 @@
         <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D37" t="s">
         <v>215</v>
@@ -4431,7 +4446,7 @@
         <v>216</v>
       </c>
       <c r="G37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H37" t="s">
         <v>128</v>
@@ -4448,7 +4463,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D38" t="s">
         <v>218</v>
@@ -4457,7 +4472,7 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H38" t="s">
         <v>219</v>
@@ -4474,7 +4489,7 @@
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D39" t="s">
         <v>222</v>
@@ -4486,7 +4501,7 @@
         <v>223</v>
       </c>
       <c r="G39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H39" t="s">
         <v>128</v>
@@ -4503,7 +4518,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D40" t="s">
         <v>225</v>
@@ -4512,7 +4527,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H40" t="s">
         <v>128</v>
@@ -4540,7 +4555,7 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D42" t="s">
         <v>228</v>
@@ -4549,7 +4564,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H42" t="s">
         <v>128</v>
@@ -4566,7 +4581,7 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D43" t="s">
         <v>208</v>
@@ -4575,7 +4590,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H43" t="s">
         <v>128</v>
@@ -4592,7 +4607,7 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D44" t="s">
         <v>208</v>
@@ -4601,10 +4616,10 @@
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>231</v>
+        <v>348</v>
       </c>
       <c r="G44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H44" t="s">
         <v>128</v>
@@ -4615,13 +4630,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D45" t="s">
         <v>225</v>
@@ -4630,7 +4645,7 @@
         <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H45" t="s">
         <v>128</v>
@@ -4641,7 +4656,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -4655,22 +4670,22 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
       </c>
       <c r="C47" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
         <v>308</v>
-      </c>
-      <c r="D47" t="s">
-        <v>235</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s">
-        <v>309</v>
       </c>
       <c r="H47" t="s">
         <v>128</v>
@@ -4681,22 +4696,22 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
         <v>310</v>
-      </c>
-      <c r="D48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" t="s">
-        <v>311</v>
       </c>
       <c r="H48" t="s">
         <v>128</v>
@@ -4707,7 +4722,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B49" t="s">
         <v>82</v>

--- a/SeleniumUIApplication/excel/AN_Lighting.xlsx
+++ b/SeleniumUIApplication/excel/AN_Lighting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasudha Katragunta\git\SeleniumUIApplication\SeleniumUIApplication\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA00D4FE-2543-478D-9F9C-8AC1C08EEC3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB353D-D372-4C0D-A4FF-0E9C73C2B06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
   </bookViews>
   <sheets>
     <sheet name="SCENARIOS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="353">
   <si>
     <t>TestCase</t>
   </si>
@@ -1083,6 +1083,18 @@
   </si>
   <si>
     <t>Editing the existing Imperative</t>
+  </si>
+  <si>
+    <t>Step-47</t>
+  </si>
+  <si>
+    <t>Step-48</t>
+  </si>
+  <si>
+    <t>Step-49</t>
+  </si>
+  <si>
+    <t>Step-50</t>
   </si>
 </sst>
 </file>
@@ -2100,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E6648A-4201-4A34-ABA2-C6B27F810295}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE86BEC0-8829-407F-A371-C504A3EB402A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3598,10 +3610,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0456A8EF-4592-490A-A3A2-55065F1D8139}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4093,7 +4105,7 @@
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>347</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
         <v>192</v>
@@ -4330,7 +4342,7 @@
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>347</v>
       </c>
       <c r="G33" t="s">
         <v>288</v>
@@ -4515,25 +4527,13 @@
         <v>224</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
         <v>225</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>298</v>
-      </c>
-      <c r="H40" t="s">
-        <v>128</v>
-      </c>
-      <c r="I40" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4541,10 +4541,25 @@
         <v>226</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41">
-        <v>2000</v>
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>298</v>
+      </c>
+      <c r="H41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4552,25 +4567,10 @@
         <v>227</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>299</v>
-      </c>
-      <c r="D42" t="s">
-        <v>228</v>
-      </c>
-      <c r="E42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>300</v>
-      </c>
-      <c r="H42" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" t="s">
-        <v>129</v>
+        <v>25</v>
+      </c>
+      <c r="F42">
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4578,25 +4578,13 @@
         <v>229</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>302</v>
-      </c>
-      <c r="H43" t="s">
-        <v>128</v>
-      </c>
-      <c r="I43" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4604,22 +4592,19 @@
         <v>230</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
-      <c r="F44" t="s">
-        <v>348</v>
-      </c>
       <c r="G44" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H44" t="s">
         <v>128</v>
@@ -4636,16 +4621,16 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H45" t="s">
         <v>128</v>
@@ -4659,13 +4644,28 @@
         <v>232</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" t="s">
+        <v>208</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
-      <c r="F46">
-        <v>2000</v>
+      <c r="F46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G46" t="s">
+        <v>304</v>
+      </c>
+      <c r="H46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4676,16 +4676,16 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H47" t="s">
         <v>128</v>
@@ -4699,32 +4699,100 @@
         <v>235</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" t="s">
-        <v>309</v>
-      </c>
-      <c r="D48" t="s">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
-      <c r="G48" t="s">
-        <v>310</v>
-      </c>
-      <c r="H48" t="s">
-        <v>128</v>
-      </c>
-      <c r="I48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>237</v>
       </c>
       <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>308</v>
+      </c>
+      <c r="H50" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>350</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>351</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" t="s">
+        <v>236</v>
+      </c>
+      <c r="E52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>310</v>
+      </c>
+      <c r="H52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>352</v>
+      </c>
+      <c r="B53" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4732,6 +4800,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{D3DEA1FC-61A3-4EFD-B5E1-C4435A4D3F1C}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{F4CDB7C4-94AB-471E-8623-5882C015CC9D}"/>

--- a/SeleniumUIApplication/excel/AN_Lighting.xlsx
+++ b/SeleniumUIApplication/excel/AN_Lighting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasudha Katragunta\git\SeleniumUIApplication\SeleniumUIApplication\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB353D-D372-4C0D-A4FF-0E9C73C2B06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83FC089-BDB2-49C5-839F-01A2FA5572A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{509AC570-2FB8-4194-A20E-8DF39BF3E963}"/>
   </bookViews>
   <sheets>
     <sheet name="SCENARIOS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="354">
   <si>
     <t>TestCase</t>
   </si>
@@ -1095,6 +1095,9 @@
   </si>
   <si>
     <t>Step-50</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
   </si>
 </sst>
 </file>
@@ -1536,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C9A200-B09E-4F1E-B00D-15545FE5CCE6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E6648A-4201-4A34-ABA2-C6B27F810295}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3612,8 +3615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0456A8EF-4592-490A-A3A2-55065F1D8139}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4304,7 +4307,7 @@
         <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>353</v>
       </c>
       <c r="C32" t="s">
         <v>285</v>
